--- a/output/questionnaires/2021-11-28_aargau.xlsx
+++ b/output/questionnaires/2021-11-28_aargau.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" name="HTML_1" vbProcedure="false">Sheet1!$A$99:$M$122</definedName>
@@ -6303,6 +6303,112 @@
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>

--- a/output/questionnaires/2021-11-28_aargau.xlsx
+++ b/output/questionnaires/2021-11-28_aargau.xlsx
@@ -12,8 +12,8 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" name="HTML_1" vbProcedure="false">Sheet1!$A$99:$M$122</definedName>
-    <definedName function="false" hidden="false" name="HTML_10" vbProcedure="false">Sheet1!$A$981:$M$1136</definedName>
-    <definedName function="false" hidden="false" name="HTML_11" vbProcedure="false">Sheet1!$A$1142:$M$1144</definedName>
+    <definedName function="false" hidden="false" name="HTML_10" vbProcedure="false">Sheet1!$A$981:$M$1154</definedName>
+    <definedName function="false" hidden="false" name="HTML_11" vbProcedure="false">Sheet1!$A$1160:$M$1162</definedName>
     <definedName function="false" hidden="false" name="HTML_2" vbProcedure="false">Sheet1!$A$128:$M$138</definedName>
     <definedName function="false" hidden="false" name="HTML_3" vbProcedure="false">Sheet1!$A$142:$M$173</definedName>
     <definedName function="false" hidden="false" name="HTML_4" vbProcedure="false">Sheet1!$A$177:$M$480</definedName>
@@ -22,7 +22,7 @@
     <definedName function="false" hidden="false" name="HTML_7" vbProcedure="false">Sheet1!$A$676:$M$715</definedName>
     <definedName function="false" hidden="false" name="HTML_8" vbProcedure="false">Sheet1!$A$719:$M$849</definedName>
     <definedName function="false" hidden="false" name="HTML_9" vbProcedure="false">Sheet1!$A$855:$M$973</definedName>
-    <definedName function="false" hidden="false" name="HTML_all" vbProcedure="false">Sheet1!$A$1:$M$1181</definedName>
+    <definedName function="false" hidden="false" name="HTML_all" vbProcedure="false">Sheet1!$A$1:$M$1199</definedName>
     <definedName function="false" hidden="false" name="HTML_tables" vbProcedure="false">Sheet1!$A$1:$A$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3748" uniqueCount="1692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3815" uniqueCount="1704">
   <si>
     <t xml:space="preserve">FOKUS-Aargau-Fragebogen für den Abstimmungstermin vom 28. November 2021</t>
   </si>
@@ -5457,6 +5457,42 @@
   </si>
   <si>
     <t xml:space="preserve">importance (reduced) the respondent attaches to the federal proposal “Änderung vom 19. März 2021 des Bundesgesetzes über die gesetzlichen Grundlagen für Verordnungen des Bundesrates zur Bewältigung der Covid-19-Epidemie (Covid-Gesetz)”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Informationsgrad eidgenössische Vorlage 1 (reduziert)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">information_level_federal_proposal_1_reduced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">information_level_fp_1_rdc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">respondent’s information level (reduced) on the federal proposal “Für eine starke Pflege (Pflegeinitiative)”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Informationsgrad eidgenössische Vorlage 2 (reduziert)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">information_level_federal_proposal_2_reduced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">information_level_fp_2_rdc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">respondent’s information level (reduced) on the federal proposal “Bestimmung der Bundesrichterinnen und Bundesrichter im Losverfahren (Justiz-Initiative)”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Informationsgrad eidgenössische Vorlage 3 (reduziert)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">information_level_federal_proposal_3_reduced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">information_level_fp_3_rdc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">respondent’s information level (reduced) on the federal proposal “Änderung vom 19. März 2021 des Bundesgesetzes über die gesetzlichen Grundlagen für Verordnungen des Bundesrates zur Bewältigung der Covid-19-Epidemie (Covid-Gesetz)”</t>
   </si>
   <si>
     <t xml:space="preserve">Verständnisschwierigkeit eidgenössische Vorlage 1 (reduziert)</t>
@@ -6306,7 +6342,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
   <a:themeElements>
     <a:clrScheme name="LibreOffice">
       <a:dk1>
@@ -6416,7 +6452,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M1181"/>
+  <dimension ref="A1:M1199"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -30759,8 +30795,8 @@
       <c r="C1092" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D1092" s="8" t="s">
-        <v>60</v>
+      <c r="D1092" s="4" t="s">
+        <v>298</v>
       </c>
       <c r="E1092" s="8" t="s">
         <v>61</v>
@@ -30775,13 +30811,13 @@
         <v>1585</v>
       </c>
       <c r="I1092" s="4" t="s">
-        <v>1586</v>
+        <v>1572</v>
       </c>
       <c r="J1092" s="8" t="s">
         <v>60</v>
       </c>
       <c r="K1092" s="4" t="s">
-        <v>1587</v>
+        <v>1522</v>
       </c>
       <c r="L1092" s="8" t="s">
         <v>61</v>
@@ -30794,17 +30830,17 @@
       <c r="A1093" s="8"/>
       <c r="B1093" s="8"/>
       <c r="C1093" s="8"/>
-      <c r="D1093" s="8"/>
+      <c r="D1093" s="4"/>
       <c r="E1093" s="8"/>
       <c r="F1093" s="8"/>
       <c r="G1093" s="8"/>
       <c r="H1093" s="8"/>
       <c r="I1093" s="4" t="s">
-        <v>1588</v>
+        <v>1573</v>
       </c>
       <c r="J1093" s="8"/>
       <c r="K1093" s="4" t="s">
-        <v>1589</v>
+        <v>1524</v>
       </c>
       <c r="L1093" s="8"/>
       <c r="M1093" s="8"/>
@@ -30813,86 +30849,66 @@
       <c r="A1094" s="8"/>
       <c r="B1094" s="8"/>
       <c r="C1094" s="8"/>
-      <c r="D1094" s="8"/>
+      <c r="D1094" s="4" t="s">
+        <v>304</v>
+      </c>
       <c r="E1094" s="8"/>
       <c r="F1094" s="8"/>
       <c r="G1094" s="8"/>
       <c r="H1094" s="8"/>
       <c r="I1094" s="4" t="s">
-        <v>161</v>
+        <v>1525</v>
       </c>
       <c r="J1094" s="8"/>
       <c r="K1094" s="4" t="s">
-        <v>162</v>
+        <v>1526</v>
       </c>
       <c r="L1094" s="8"/>
       <c r="M1094" s="8"/>
     </row>
-    <row r="1095" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1095" s="8" t="n">
-        <v>3027</v>
-      </c>
-      <c r="B1095" s="8" t="s">
-        <v>1590</v>
-      </c>
-      <c r="C1095" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1095" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1095" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1095" s="8" t="s">
-        <v>1591</v>
-      </c>
-      <c r="G1095" s="8" t="s">
-        <v>1592</v>
-      </c>
-      <c r="H1095" s="8" t="s">
-        <v>1593</v>
-      </c>
+    <row r="1095" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1095" s="8"/>
+      <c r="B1095" s="8"/>
+      <c r="C1095" s="8"/>
+      <c r="D1095" s="1"/>
+      <c r="E1095" s="8"/>
+      <c r="F1095" s="8"/>
+      <c r="G1095" s="8"/>
+      <c r="H1095" s="8"/>
       <c r="I1095" s="4" t="s">
-        <v>1586</v>
-      </c>
-      <c r="J1095" s="8" t="s">
-        <v>60</v>
-      </c>
+        <v>1527</v>
+      </c>
+      <c r="J1095" s="8"/>
       <c r="K1095" s="4" t="s">
-        <v>1587</v>
-      </c>
-      <c r="L1095" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="M1095" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="1096" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1528</v>
+      </c>
+      <c r="L1095" s="8"/>
+      <c r="M1095" s="8"/>
+    </row>
+    <row r="1096" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1096" s="8"/>
       <c r="B1096" s="8"/>
       <c r="C1096" s="8"/>
-      <c r="D1096" s="8"/>
+      <c r="D1096" s="1"/>
       <c r="E1096" s="8"/>
       <c r="F1096" s="8"/>
       <c r="G1096" s="8"/>
       <c r="H1096" s="8"/>
       <c r="I1096" s="4" t="s">
-        <v>1588</v>
+        <v>1529</v>
       </c>
       <c r="J1096" s="8"/>
       <c r="K1096" s="4" t="s">
-        <v>1589</v>
+        <v>1530</v>
       </c>
       <c r="L1096" s="8"/>
       <c r="M1096" s="8"/>
     </row>
-    <row r="1097" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1097" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1097" s="8"/>
       <c r="B1097" s="8"/>
       <c r="C1097" s="8"/>
-      <c r="D1097" s="8"/>
+      <c r="D1097" s="1"/>
       <c r="E1097" s="8"/>
       <c r="F1097" s="8"/>
       <c r="G1097" s="8"/>
@@ -30909,37 +30925,37 @@
     </row>
     <row r="1098" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1098" s="8" t="n">
-        <v>3028</v>
+        <v>3027</v>
       </c>
       <c r="B1098" s="8" t="s">
-        <v>1594</v>
+        <v>1586</v>
       </c>
       <c r="C1098" s="8" t="s">
         <v>59</v>
       </c>
       <c r="D1098" s="8" t="s">
-        <v>60</v>
+        <v>308</v>
       </c>
       <c r="E1098" s="8" t="s">
         <v>61</v>
       </c>
       <c r="F1098" s="8" t="s">
-        <v>1595</v>
+        <v>1587</v>
       </c>
       <c r="G1098" s="8" t="s">
-        <v>1596</v>
+        <v>1588</v>
       </c>
       <c r="H1098" s="8" t="s">
-        <v>1597</v>
+        <v>1589</v>
       </c>
       <c r="I1098" s="4" t="s">
-        <v>1586</v>
+        <v>1572</v>
       </c>
       <c r="J1098" s="8" t="s">
         <v>60</v>
       </c>
       <c r="K1098" s="4" t="s">
-        <v>1587</v>
+        <v>1522</v>
       </c>
       <c r="L1098" s="8" t="s">
         <v>61</v>
@@ -30958,11 +30974,11 @@
       <c r="G1099" s="8"/>
       <c r="H1099" s="8"/>
       <c r="I1099" s="4" t="s">
-        <v>1588</v>
+        <v>1573</v>
       </c>
       <c r="J1099" s="8"/>
       <c r="K1099" s="4" t="s">
-        <v>1589</v>
+        <v>1524</v>
       </c>
       <c r="L1099" s="8"/>
       <c r="M1099" s="8"/>
@@ -30977,55 +30993,33 @@
       <c r="G1100" s="8"/>
       <c r="H1100" s="8"/>
       <c r="I1100" s="4" t="s">
-        <v>161</v>
+        <v>1525</v>
       </c>
       <c r="J1100" s="8"/>
       <c r="K1100" s="4" t="s">
-        <v>162</v>
+        <v>1526</v>
       </c>
       <c r="L1100" s="8"/>
       <c r="M1100" s="8"/>
     </row>
     <row r="1101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1101" s="8" t="n">
-        <v>3029</v>
-      </c>
-      <c r="B1101" s="8" t="s">
-        <v>1598</v>
-      </c>
-      <c r="C1101" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="D1101" s="9" t="s">
-        <v>543</v>
-      </c>
-      <c r="E1101" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1101" s="8" t="s">
-        <v>1599</v>
-      </c>
-      <c r="G1101" s="8" t="s">
-        <v>1600</v>
-      </c>
-      <c r="H1101" s="8" t="s">
-        <v>1601</v>
-      </c>
+      <c r="A1101" s="8"/>
+      <c r="B1101" s="8"/>
+      <c r="C1101" s="8"/>
+      <c r="D1101" s="8"/>
+      <c r="E1101" s="8"/>
+      <c r="F1101" s="8"/>
+      <c r="G1101" s="8"/>
+      <c r="H1101" s="8"/>
       <c r="I1101" s="4" t="s">
-        <v>1602</v>
-      </c>
-      <c r="J1101" s="8" t="s">
-        <v>60</v>
-      </c>
+        <v>1527</v>
+      </c>
+      <c r="J1101" s="8"/>
       <c r="K1101" s="4" t="s">
-        <v>1603</v>
-      </c>
-      <c r="L1101" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="M1101" s="8" t="s">
-        <v>61</v>
-      </c>
+        <v>1528</v>
+      </c>
+      <c r="L1101" s="8"/>
+      <c r="M1101" s="8"/>
     </row>
     <row r="1102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1102" s="8"/>
@@ -31037,115 +31031,93 @@
       <c r="G1102" s="8"/>
       <c r="H1102" s="8"/>
       <c r="I1102" s="4" t="s">
-        <v>1604</v>
+        <v>1529</v>
       </c>
       <c r="J1102" s="8"/>
       <c r="K1102" s="4" t="s">
-        <v>1605</v>
+        <v>1530</v>
       </c>
       <c r="L1102" s="8"/>
       <c r="M1102" s="8"/>
     </row>
     <row r="1103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1103" s="8" t="n">
-        <v>3030</v>
-      </c>
-      <c r="B1103" s="8" t="s">
-        <v>1606</v>
-      </c>
-      <c r="C1103" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="D1103" s="9" t="s">
-        <v>549</v>
-      </c>
-      <c r="E1103" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1103" s="8" t="s">
-        <v>1607</v>
-      </c>
-      <c r="G1103" s="8" t="s">
-        <v>1608</v>
-      </c>
-      <c r="H1103" s="8" t="s">
-        <v>1609</v>
-      </c>
+      <c r="A1103" s="8"/>
+      <c r="B1103" s="8"/>
+      <c r="C1103" s="8"/>
+      <c r="D1103" s="8"/>
+      <c r="E1103" s="8"/>
+      <c r="F1103" s="8"/>
+      <c r="G1103" s="8"/>
+      <c r="H1103" s="8"/>
       <c r="I1103" s="4" t="s">
-        <v>1602</v>
-      </c>
-      <c r="J1103" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="J1103" s="8"/>
+      <c r="K1103" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="L1103" s="8"/>
+      <c r="M1103" s="8"/>
+    </row>
+    <row r="1104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1104" s="8" t="n">
+        <v>3028</v>
+      </c>
+      <c r="B1104" s="8" t="s">
+        <v>1590</v>
+      </c>
+      <c r="C1104" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1104" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="E1104" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1104" s="8" t="s">
+        <v>1591</v>
+      </c>
+      <c r="G1104" s="8" t="s">
+        <v>1592</v>
+      </c>
+      <c r="H1104" s="8" t="s">
+        <v>1593</v>
+      </c>
+      <c r="I1104" s="4" t="s">
+        <v>1572</v>
+      </c>
+      <c r="J1104" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="K1103" s="4" t="s">
-        <v>1603</v>
-      </c>
-      <c r="L1103" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="M1103" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="1104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1104" s="8"/>
-      <c r="B1104" s="8"/>
-      <c r="C1104" s="8"/>
-      <c r="D1104" s="8"/>
-      <c r="E1104" s="8"/>
-      <c r="F1104" s="8"/>
-      <c r="G1104" s="8"/>
-      <c r="H1104" s="8"/>
-      <c r="I1104" s="4" t="s">
-        <v>1604</v>
-      </c>
-      <c r="J1104" s="8"/>
       <c r="K1104" s="4" t="s">
-        <v>1605</v>
-      </c>
-      <c r="L1104" s="8"/>
-      <c r="M1104" s="8"/>
+        <v>1522</v>
+      </c>
+      <c r="L1104" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1104" s="8" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="1105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1105" s="8" t="n">
-        <v>3031</v>
-      </c>
-      <c r="B1105" s="8" t="s">
-        <v>1610</v>
-      </c>
-      <c r="C1105" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="D1105" s="9" t="s">
-        <v>560</v>
-      </c>
-      <c r="E1105" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1105" s="8" t="s">
-        <v>1611</v>
-      </c>
-      <c r="G1105" s="8" t="s">
-        <v>1612</v>
-      </c>
-      <c r="H1105" s="8" t="s">
-        <v>1613</v>
-      </c>
+      <c r="A1105" s="8"/>
+      <c r="B1105" s="8"/>
+      <c r="C1105" s="8"/>
+      <c r="D1105" s="8"/>
+      <c r="E1105" s="8"/>
+      <c r="F1105" s="8"/>
+      <c r="G1105" s="8"/>
+      <c r="H1105" s="8"/>
       <c r="I1105" s="4" t="s">
-        <v>1602</v>
-      </c>
-      <c r="J1105" s="8" t="s">
-        <v>60</v>
-      </c>
+        <v>1573</v>
+      </c>
+      <c r="J1105" s="8"/>
       <c r="K1105" s="4" t="s">
-        <v>1603</v>
-      </c>
-      <c r="L1105" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="M1105" s="8" t="s">
-        <v>61</v>
-      </c>
+        <v>1524</v>
+      </c>
+      <c r="L1105" s="8"/>
+      <c r="M1105" s="8"/>
     </row>
     <row r="1106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1106" s="8"/>
@@ -31157,55 +31129,33 @@
       <c r="G1106" s="8"/>
       <c r="H1106" s="8"/>
       <c r="I1106" s="4" t="s">
-        <v>1604</v>
+        <v>1525</v>
       </c>
       <c r="J1106" s="8"/>
       <c r="K1106" s="4" t="s">
-        <v>1605</v>
+        <v>1526</v>
       </c>
       <c r="L1106" s="8"/>
       <c r="M1106" s="8"/>
     </row>
     <row r="1107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1107" s="8" t="n">
-        <v>3032</v>
-      </c>
-      <c r="B1107" s="8" t="s">
-        <v>1614</v>
-      </c>
-      <c r="C1107" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="D1107" s="9" t="s">
-        <v>581</v>
-      </c>
-      <c r="E1107" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1107" s="8" t="s">
-        <v>1615</v>
-      </c>
-      <c r="G1107" s="8" t="s">
-        <v>1616</v>
-      </c>
-      <c r="H1107" s="8" t="s">
-        <v>1617</v>
-      </c>
+      <c r="A1107" s="8"/>
+      <c r="B1107" s="8"/>
+      <c r="C1107" s="8"/>
+      <c r="D1107" s="8"/>
+      <c r="E1107" s="8"/>
+      <c r="F1107" s="8"/>
+      <c r="G1107" s="8"/>
+      <c r="H1107" s="8"/>
       <c r="I1107" s="4" t="s">
-        <v>1602</v>
-      </c>
-      <c r="J1107" s="8" t="s">
-        <v>60</v>
-      </c>
+        <v>1527</v>
+      </c>
+      <c r="J1107" s="8"/>
       <c r="K1107" s="4" t="s">
-        <v>1603</v>
-      </c>
-      <c r="L1107" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="M1107" s="8" t="s">
-        <v>61</v>
-      </c>
+        <v>1528</v>
+      </c>
+      <c r="L1107" s="8"/>
+      <c r="M1107" s="8"/>
     </row>
     <row r="1108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1108" s="8"/>
@@ -31217,115 +31167,93 @@
       <c r="G1108" s="8"/>
       <c r="H1108" s="8"/>
       <c r="I1108" s="4" t="s">
-        <v>1604</v>
+        <v>1529</v>
       </c>
       <c r="J1108" s="8"/>
       <c r="K1108" s="4" t="s">
-        <v>1605</v>
+        <v>1530</v>
       </c>
       <c r="L1108" s="8"/>
       <c r="M1108" s="8"/>
     </row>
     <row r="1109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1109" s="8" t="n">
-        <v>3033</v>
-      </c>
-      <c r="B1109" s="8" t="s">
-        <v>1618</v>
-      </c>
-      <c r="C1109" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="D1109" s="9" t="s">
-        <v>587</v>
-      </c>
-      <c r="E1109" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1109" s="8" t="s">
-        <v>1619</v>
-      </c>
-      <c r="G1109" s="8" t="s">
-        <v>1620</v>
-      </c>
-      <c r="H1109" s="8" t="s">
-        <v>1621</v>
-      </c>
+      <c r="A1109" s="8"/>
+      <c r="B1109" s="8"/>
+      <c r="C1109" s="8"/>
+      <c r="D1109" s="8"/>
+      <c r="E1109" s="8"/>
+      <c r="F1109" s="8"/>
+      <c r="G1109" s="8"/>
+      <c r="H1109" s="8"/>
       <c r="I1109" s="4" t="s">
-        <v>1602</v>
-      </c>
-      <c r="J1109" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="J1109" s="8"/>
+      <c r="K1109" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="L1109" s="8"/>
+      <c r="M1109" s="8"/>
+    </row>
+    <row r="1110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1110" s="8" t="n">
+        <v>3029</v>
+      </c>
+      <c r="B1110" s="8" t="s">
+        <v>1594</v>
+      </c>
+      <c r="C1110" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1110" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="K1109" s="4" t="s">
-        <v>1603</v>
-      </c>
-      <c r="L1109" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="M1109" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="1110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1110" s="8"/>
-      <c r="B1110" s="8"/>
-      <c r="C1110" s="8"/>
-      <c r="D1110" s="8"/>
-      <c r="E1110" s="8"/>
-      <c r="F1110" s="8"/>
-      <c r="G1110" s="8"/>
-      <c r="H1110" s="8"/>
+      <c r="E1110" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1110" s="8" t="s">
+        <v>1595</v>
+      </c>
+      <c r="G1110" s="8" t="s">
+        <v>1596</v>
+      </c>
+      <c r="H1110" s="8" t="s">
+        <v>1597</v>
+      </c>
       <c r="I1110" s="4" t="s">
-        <v>1604</v>
-      </c>
-      <c r="J1110" s="8"/>
+        <v>1598</v>
+      </c>
+      <c r="J1110" s="8" t="s">
+        <v>60</v>
+      </c>
       <c r="K1110" s="4" t="s">
-        <v>1605</v>
-      </c>
-      <c r="L1110" s="8"/>
-      <c r="M1110" s="8"/>
+        <v>1599</v>
+      </c>
+      <c r="L1110" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1110" s="8" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="1111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1111" s="8" t="n">
-        <v>3034</v>
-      </c>
-      <c r="B1111" s="8" t="s">
-        <v>1622</v>
-      </c>
-      <c r="C1111" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="D1111" s="9" t="s">
-        <v>600</v>
-      </c>
-      <c r="E1111" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1111" s="8" t="s">
-        <v>1623</v>
-      </c>
-      <c r="G1111" s="8" t="s">
-        <v>1624</v>
-      </c>
-      <c r="H1111" s="8" t="s">
-        <v>1625</v>
-      </c>
+      <c r="A1111" s="8"/>
+      <c r="B1111" s="8"/>
+      <c r="C1111" s="8"/>
+      <c r="D1111" s="8"/>
+      <c r="E1111" s="8"/>
+      <c r="F1111" s="8"/>
+      <c r="G1111" s="8"/>
+      <c r="H1111" s="8"/>
       <c r="I1111" s="4" t="s">
-        <v>1602</v>
-      </c>
-      <c r="J1111" s="8" t="s">
-        <v>60</v>
-      </c>
+        <v>1600</v>
+      </c>
+      <c r="J1111" s="8"/>
       <c r="K1111" s="4" t="s">
-        <v>1603</v>
-      </c>
-      <c r="L1111" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="M1111" s="8" t="s">
-        <v>61</v>
-      </c>
+        <v>1601</v>
+      </c>
+      <c r="L1111" s="8"/>
+      <c r="M1111" s="8"/>
     </row>
     <row r="1112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1112" s="8"/>
@@ -31337,156 +31265,134 @@
       <c r="G1112" s="8"/>
       <c r="H1112" s="8"/>
       <c r="I1112" s="4" t="s">
-        <v>1604</v>
+        <v>161</v>
       </c>
       <c r="J1112" s="8"/>
       <c r="K1112" s="4" t="s">
-        <v>1605</v>
+        <v>162</v>
       </c>
       <c r="L1112" s="8"/>
       <c r="M1112" s="8"/>
     </row>
     <row r="1113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1113" s="4" t="n">
-        <v>3035</v>
-      </c>
-      <c r="B1113" s="4" t="s">
-        <v>1626</v>
-      </c>
-      <c r="C1113" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="D1113" s="4" t="s">
+      <c r="A1113" s="8" t="n">
+        <v>3030</v>
+      </c>
+      <c r="B1113" s="8" t="s">
+        <v>1602</v>
+      </c>
+      <c r="C1113" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1113" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E1113" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1113" s="4" t="s">
-        <v>1627</v>
-      </c>
-      <c r="G1113" s="4" t="s">
-        <v>1628</v>
-      </c>
-      <c r="H1113" s="4" t="s">
-        <v>1629</v>
-      </c>
-      <c r="I1113" s="7" t="s">
-        <v>1481</v>
-      </c>
-      <c r="J1113" s="4" t="s">
+      <c r="E1113" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1113" s="8" t="s">
+        <v>1603</v>
+      </c>
+      <c r="G1113" s="8" t="s">
+        <v>1604</v>
+      </c>
+      <c r="H1113" s="8" t="s">
+        <v>1605</v>
+      </c>
+      <c r="I1113" s="4" t="s">
+        <v>1598</v>
+      </c>
+      <c r="J1113" s="8" t="s">
         <v>60</v>
       </c>
       <c r="K1113" s="4" t="s">
+        <v>1599</v>
+      </c>
+      <c r="L1113" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1113" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1114" s="8"/>
+      <c r="B1114" s="8"/>
+      <c r="C1114" s="8"/>
+      <c r="D1114" s="8"/>
+      <c r="E1114" s="8"/>
+      <c r="F1114" s="8"/>
+      <c r="G1114" s="8"/>
+      <c r="H1114" s="8"/>
+      <c r="I1114" s="4" t="s">
+        <v>1600</v>
+      </c>
+      <c r="J1114" s="8"/>
+      <c r="K1114" s="4" t="s">
+        <v>1601</v>
+      </c>
+      <c r="L1114" s="8"/>
+      <c r="M1114" s="8"/>
+    </row>
+    <row r="1115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1115" s="8"/>
+      <c r="B1115" s="8"/>
+      <c r="C1115" s="8"/>
+      <c r="D1115" s="8"/>
+      <c r="E1115" s="8"/>
+      <c r="F1115" s="8"/>
+      <c r="G1115" s="8"/>
+      <c r="H1115" s="8"/>
+      <c r="I1115" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="J1115" s="8"/>
+      <c r="K1115" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="L1115" s="8"/>
+      <c r="M1115" s="8"/>
+    </row>
+    <row r="1116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1116" s="8" t="n">
+        <v>3031</v>
+      </c>
+      <c r="B1116" s="8" t="s">
+        <v>1606</v>
+      </c>
+      <c r="C1116" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1116" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="L1113" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="M1113" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="1114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1114" s="4" t="n">
-        <v>3036</v>
-      </c>
-      <c r="B1114" s="4" t="s">
-        <v>1630</v>
-      </c>
-      <c r="C1114" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="D1114" s="4" t="s">
+      <c r="E1116" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1116" s="8" t="s">
+        <v>1607</v>
+      </c>
+      <c r="G1116" s="8" t="s">
+        <v>1608</v>
+      </c>
+      <c r="H1116" s="8" t="s">
+        <v>1609</v>
+      </c>
+      <c r="I1116" s="4" t="s">
+        <v>1598</v>
+      </c>
+      <c r="J1116" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E1114" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1114" s="4" t="s">
-        <v>1631</v>
-      </c>
-      <c r="G1114" s="4" t="s">
-        <v>1632</v>
-      </c>
-      <c r="H1114" s="4" t="s">
-        <v>1633</v>
-      </c>
-      <c r="I1114" s="7" t="s">
-        <v>1481</v>
-      </c>
-      <c r="J1114" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="K1114" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="L1114" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="M1114" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="1115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1115" s="8" t="n">
-        <v>3037</v>
-      </c>
-      <c r="B1115" s="8" t="s">
-        <v>1634</v>
-      </c>
-      <c r="C1115" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="D1115" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1115" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1115" s="8" t="s">
-        <v>1635</v>
-      </c>
-      <c r="G1115" s="8" t="s">
-        <v>1636</v>
-      </c>
-      <c r="H1115" s="8" t="s">
-        <v>1637</v>
-      </c>
-      <c r="I1115" s="4" t="s">
-        <v>1638</v>
-      </c>
-      <c r="J1115" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="K1115" s="4" t="s">
-        <v>1639</v>
-      </c>
-      <c r="L1115" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="M1115" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="1116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1116" s="8"/>
-      <c r="B1116" s="8"/>
-      <c r="C1116" s="8"/>
-      <c r="D1116" s="8"/>
-      <c r="E1116" s="8"/>
-      <c r="F1116" s="8"/>
-      <c r="G1116" s="8"/>
-      <c r="H1116" s="8"/>
-      <c r="I1116" s="4" t="s">
-        <v>1640</v>
-      </c>
-      <c r="J1116" s="8"/>
       <c r="K1116" s="4" t="s">
-        <v>1641</v>
-      </c>
-      <c r="L1116" s="8"/>
-      <c r="M1116" s="8"/>
+        <v>1599</v>
+      </c>
+      <c r="L1116" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1116" s="8" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="1117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1117" s="8"/>
@@ -31498,11 +31404,11 @@
       <c r="G1117" s="8"/>
       <c r="H1117" s="8"/>
       <c r="I1117" s="4" t="s">
-        <v>1642</v>
+        <v>1600</v>
       </c>
       <c r="J1117" s="8"/>
       <c r="K1117" s="4" t="s">
-        <v>1643</v>
+        <v>1601</v>
       </c>
       <c r="L1117" s="8"/>
       <c r="M1117" s="8"/>
@@ -31517,93 +31423,115 @@
       <c r="G1118" s="8"/>
       <c r="H1118" s="8"/>
       <c r="I1118" s="4" t="s">
-        <v>1644</v>
+        <v>161</v>
       </c>
       <c r="J1118" s="8"/>
       <c r="K1118" s="4" t="s">
-        <v>1645</v>
+        <v>162</v>
       </c>
       <c r="L1118" s="8"/>
       <c r="M1118" s="8"/>
     </row>
     <row r="1119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1119" s="8"/>
-      <c r="B1119" s="8"/>
-      <c r="C1119" s="8"/>
-      <c r="D1119" s="8"/>
-      <c r="E1119" s="8"/>
-      <c r="F1119" s="8"/>
-      <c r="G1119" s="8"/>
-      <c r="H1119" s="8"/>
+      <c r="A1119" s="8" t="n">
+        <v>3032</v>
+      </c>
+      <c r="B1119" s="8" t="s">
+        <v>1610</v>
+      </c>
+      <c r="C1119" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="D1119" s="9" t="s">
+        <v>543</v>
+      </c>
+      <c r="E1119" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1119" s="8" t="s">
+        <v>1611</v>
+      </c>
+      <c r="G1119" s="8" t="s">
+        <v>1612</v>
+      </c>
+      <c r="H1119" s="8" t="s">
+        <v>1613</v>
+      </c>
       <c r="I1119" s="4" t="s">
-        <v>1646</v>
-      </c>
-      <c r="J1119" s="8"/>
+        <v>1614</v>
+      </c>
+      <c r="J1119" s="8" t="s">
+        <v>60</v>
+      </c>
       <c r="K1119" s="4" t="s">
-        <v>1647</v>
-      </c>
-      <c r="L1119" s="8"/>
-      <c r="M1119" s="8"/>
+        <v>1615</v>
+      </c>
+      <c r="L1119" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1119" s="8" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="1120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1120" s="8" t="n">
-        <v>3038</v>
-      </c>
-      <c r="B1120" s="8" t="s">
-        <v>1648</v>
-      </c>
-      <c r="C1120" s="8" t="s">
+      <c r="A1120" s="8"/>
+      <c r="B1120" s="8"/>
+      <c r="C1120" s="8"/>
+      <c r="D1120" s="8"/>
+      <c r="E1120" s="8"/>
+      <c r="F1120" s="8"/>
+      <c r="G1120" s="8"/>
+      <c r="H1120" s="8"/>
+      <c r="I1120" s="4" t="s">
+        <v>1616</v>
+      </c>
+      <c r="J1120" s="8"/>
+      <c r="K1120" s="4" t="s">
+        <v>1617</v>
+      </c>
+      <c r="L1120" s="8"/>
+      <c r="M1120" s="8"/>
+    </row>
+    <row r="1121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1121" s="8" t="n">
+        <v>3033</v>
+      </c>
+      <c r="B1121" s="8" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C1121" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="D1120" s="8" t="s">
+      <c r="D1121" s="9" t="s">
+        <v>549</v>
+      </c>
+      <c r="E1121" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1121" s="8" t="s">
+        <v>1619</v>
+      </c>
+      <c r="G1121" s="8" t="s">
+        <v>1620</v>
+      </c>
+      <c r="H1121" s="8" t="s">
+        <v>1621</v>
+      </c>
+      <c r="I1121" s="4" t="s">
+        <v>1614</v>
+      </c>
+      <c r="J1121" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E1120" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1120" s="8" t="s">
-        <v>1649</v>
-      </c>
-      <c r="G1120" s="8" t="s">
-        <v>1650</v>
-      </c>
-      <c r="H1120" s="8" t="s">
-        <v>1651</v>
-      </c>
-      <c r="I1120" s="4" t="s">
-        <v>1638</v>
-      </c>
-      <c r="J1120" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="K1120" s="4" t="s">
-        <v>1639</v>
-      </c>
-      <c r="L1120" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="M1120" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="1121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1121" s="8"/>
-      <c r="B1121" s="8"/>
-      <c r="C1121" s="8"/>
-      <c r="D1121" s="8"/>
-      <c r="E1121" s="8"/>
-      <c r="F1121" s="8"/>
-      <c r="G1121" s="8"/>
-      <c r="H1121" s="8"/>
-      <c r="I1121" s="4" t="s">
-        <v>1640</v>
-      </c>
-      <c r="J1121" s="8"/>
       <c r="K1121" s="4" t="s">
-        <v>1641</v>
-      </c>
-      <c r="L1121" s="8"/>
-      <c r="M1121" s="8"/>
+        <v>1615</v>
+      </c>
+      <c r="L1121" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1121" s="8" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="1122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1122" s="8"/>
@@ -31615,33 +31543,55 @@
       <c r="G1122" s="8"/>
       <c r="H1122" s="8"/>
       <c r="I1122" s="4" t="s">
-        <v>1642</v>
+        <v>1616</v>
       </c>
       <c r="J1122" s="8"/>
       <c r="K1122" s="4" t="s">
-        <v>1643</v>
+        <v>1617</v>
       </c>
       <c r="L1122" s="8"/>
       <c r="M1122" s="8"/>
     </row>
     <row r="1123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1123" s="8"/>
-      <c r="B1123" s="8"/>
-      <c r="C1123" s="8"/>
-      <c r="D1123" s="8"/>
-      <c r="E1123" s="8"/>
-      <c r="F1123" s="8"/>
-      <c r="G1123" s="8"/>
-      <c r="H1123" s="8"/>
+      <c r="A1123" s="8" t="n">
+        <v>3034</v>
+      </c>
+      <c r="B1123" s="8" t="s">
+        <v>1622</v>
+      </c>
+      <c r="C1123" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="D1123" s="9" t="s">
+        <v>560</v>
+      </c>
+      <c r="E1123" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1123" s="8" t="s">
+        <v>1623</v>
+      </c>
+      <c r="G1123" s="8" t="s">
+        <v>1624</v>
+      </c>
+      <c r="H1123" s="8" t="s">
+        <v>1625</v>
+      </c>
       <c r="I1123" s="4" t="s">
-        <v>1644</v>
-      </c>
-      <c r="J1123" s="8"/>
+        <v>1614</v>
+      </c>
+      <c r="J1123" s="8" t="s">
+        <v>60</v>
+      </c>
       <c r="K1123" s="4" t="s">
-        <v>1645</v>
-      </c>
-      <c r="L1123" s="8"/>
-      <c r="M1123" s="8"/>
+        <v>1615</v>
+      </c>
+      <c r="L1123" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1123" s="8" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="1124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1124" s="8"/>
@@ -31653,115 +31603,115 @@
       <c r="G1124" s="8"/>
       <c r="H1124" s="8"/>
       <c r="I1124" s="4" t="s">
-        <v>1646</v>
+        <v>1616</v>
       </c>
       <c r="J1124" s="8"/>
       <c r="K1124" s="4" t="s">
-        <v>1647</v>
+        <v>1617</v>
       </c>
       <c r="L1124" s="8"/>
       <c r="M1124" s="8"/>
     </row>
     <row r="1125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1125" s="4" t="n">
-        <v>3039</v>
-      </c>
-      <c r="B1125" s="4" t="s">
-        <v>1652</v>
-      </c>
-      <c r="C1125" s="4" t="s">
+      <c r="A1125" s="8" t="n">
+        <v>3035</v>
+      </c>
+      <c r="B1125" s="8" t="s">
+        <v>1626</v>
+      </c>
+      <c r="C1125" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="D1125" s="4" t="s">
+      <c r="D1125" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="E1125" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1125" s="8" t="s">
+        <v>1627</v>
+      </c>
+      <c r="G1125" s="8" t="s">
+        <v>1628</v>
+      </c>
+      <c r="H1125" s="8" t="s">
+        <v>1629</v>
+      </c>
+      <c r="I1125" s="4" t="s">
+        <v>1614</v>
+      </c>
+      <c r="J1125" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E1125" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1125" s="4" t="s">
-        <v>1653</v>
-      </c>
-      <c r="G1125" s="4" t="s">
-        <v>1654</v>
-      </c>
-      <c r="H1125" s="4" t="s">
-        <v>1655</v>
-      </c>
-      <c r="I1125" s="7" t="s">
-        <v>1481</v>
-      </c>
-      <c r="J1125" s="4" t="s">
+      <c r="K1125" s="4" t="s">
+        <v>1615</v>
+      </c>
+      <c r="L1125" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1125" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1126" s="8"/>
+      <c r="B1126" s="8"/>
+      <c r="C1126" s="8"/>
+      <c r="D1126" s="8"/>
+      <c r="E1126" s="8"/>
+      <c r="F1126" s="8"/>
+      <c r="G1126" s="8"/>
+      <c r="H1126" s="8"/>
+      <c r="I1126" s="4" t="s">
+        <v>1616</v>
+      </c>
+      <c r="J1126" s="8"/>
+      <c r="K1126" s="4" t="s">
+        <v>1617</v>
+      </c>
+      <c r="L1126" s="8"/>
+      <c r="M1126" s="8"/>
+    </row>
+    <row r="1127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1127" s="8" t="n">
+        <v>3036</v>
+      </c>
+      <c r="B1127" s="8" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C1127" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="D1127" s="9" t="s">
+        <v>587</v>
+      </c>
+      <c r="E1127" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1127" s="8" t="s">
+        <v>1631</v>
+      </c>
+      <c r="G1127" s="8" t="s">
+        <v>1632</v>
+      </c>
+      <c r="H1127" s="8" t="s">
+        <v>1633</v>
+      </c>
+      <c r="I1127" s="4" t="s">
+        <v>1614</v>
+      </c>
+      <c r="J1127" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="K1125" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="L1125" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="M1125" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="1126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1126" s="8" t="n">
-        <v>3040</v>
-      </c>
-      <c r="B1126" s="8" t="s">
-        <v>1656</v>
-      </c>
-      <c r="C1126" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="D1126" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1126" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1126" s="8" t="s">
-        <v>1657</v>
-      </c>
-      <c r="G1126" s="8" t="s">
-        <v>1658</v>
-      </c>
-      <c r="H1126" s="8" t="s">
-        <v>1659</v>
-      </c>
-      <c r="I1126" s="4" t="s">
-        <v>1638</v>
-      </c>
-      <c r="J1126" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="K1126" s="4" t="s">
-        <v>1639</v>
-      </c>
-      <c r="L1126" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="M1126" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="1127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1127" s="8"/>
-      <c r="B1127" s="8"/>
-      <c r="C1127" s="8"/>
-      <c r="D1127" s="8"/>
-      <c r="E1127" s="8"/>
-      <c r="F1127" s="8"/>
-      <c r="G1127" s="8"/>
-      <c r="H1127" s="8"/>
-      <c r="I1127" s="4" t="s">
-        <v>1640</v>
-      </c>
-      <c r="J1127" s="8"/>
       <c r="K1127" s="4" t="s">
-        <v>1641</v>
-      </c>
-      <c r="L1127" s="8"/>
-      <c r="M1127" s="8"/>
+        <v>1615</v>
+      </c>
+      <c r="L1127" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1127" s="8" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="1128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1128" s="8"/>
@@ -31773,33 +31723,55 @@
       <c r="G1128" s="8"/>
       <c r="H1128" s="8"/>
       <c r="I1128" s="4" t="s">
-        <v>1642</v>
+        <v>1616</v>
       </c>
       <c r="J1128" s="8"/>
       <c r="K1128" s="4" t="s">
-        <v>1643</v>
+        <v>1617</v>
       </c>
       <c r="L1128" s="8"/>
       <c r="M1128" s="8"/>
     </row>
     <row r="1129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1129" s="8"/>
-      <c r="B1129" s="8"/>
-      <c r="C1129" s="8"/>
-      <c r="D1129" s="8"/>
-      <c r="E1129" s="8"/>
-      <c r="F1129" s="8"/>
-      <c r="G1129" s="8"/>
-      <c r="H1129" s="8"/>
+      <c r="A1129" s="8" t="n">
+        <v>3037</v>
+      </c>
+      <c r="B1129" s="8" t="s">
+        <v>1634</v>
+      </c>
+      <c r="C1129" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="D1129" s="9" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1129" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1129" s="8" t="s">
+        <v>1635</v>
+      </c>
+      <c r="G1129" s="8" t="s">
+        <v>1636</v>
+      </c>
+      <c r="H1129" s="8" t="s">
+        <v>1637</v>
+      </c>
       <c r="I1129" s="4" t="s">
-        <v>1644</v>
-      </c>
-      <c r="J1129" s="8"/>
+        <v>1614</v>
+      </c>
+      <c r="J1129" s="8" t="s">
+        <v>60</v>
+      </c>
       <c r="K1129" s="4" t="s">
-        <v>1645</v>
-      </c>
-      <c r="L1129" s="8"/>
-      <c r="M1129" s="8"/>
+        <v>1615</v>
+      </c>
+      <c r="L1129" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1129" s="8" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="1130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1130" s="8"/>
@@ -31811,440 +31783,842 @@
       <c r="G1130" s="8"/>
       <c r="H1130" s="8"/>
       <c r="I1130" s="4" t="s">
-        <v>1646</v>
+        <v>1616</v>
       </c>
       <c r="J1130" s="8"/>
       <c r="K1130" s="4" t="s">
-        <v>1647</v>
+        <v>1617</v>
       </c>
       <c r="L1130" s="8"/>
       <c r="M1130" s="8"/>
     </row>
     <row r="1131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1131" s="8" t="n">
+      <c r="A1131" s="4" t="n">
+        <v>3038</v>
+      </c>
+      <c r="B1131" s="4" t="s">
+        <v>1638</v>
+      </c>
+      <c r="C1131" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="D1131" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1131" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1131" s="4" t="s">
+        <v>1639</v>
+      </c>
+      <c r="G1131" s="4" t="s">
+        <v>1640</v>
+      </c>
+      <c r="H1131" s="4" t="s">
+        <v>1641</v>
+      </c>
+      <c r="I1131" s="7" t="s">
+        <v>1481</v>
+      </c>
+      <c r="J1131" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1131" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="L1131" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1131" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1132" s="4" t="n">
+        <v>3039</v>
+      </c>
+      <c r="B1132" s="4" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C1132" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="D1132" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1132" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1132" s="4" t="s">
+        <v>1643</v>
+      </c>
+      <c r="G1132" s="4" t="s">
+        <v>1644</v>
+      </c>
+      <c r="H1132" s="4" t="s">
+        <v>1645</v>
+      </c>
+      <c r="I1132" s="7" t="s">
+        <v>1481</v>
+      </c>
+      <c r="J1132" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1132" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="L1132" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1132" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1133" s="8" t="n">
+        <v>3040</v>
+      </c>
+      <c r="B1133" s="8" t="s">
+        <v>1646</v>
+      </c>
+      <c r="C1133" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="D1133" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1133" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1133" s="8" t="s">
+        <v>1647</v>
+      </c>
+      <c r="G1133" s="8" t="s">
+        <v>1648</v>
+      </c>
+      <c r="H1133" s="8" t="s">
+        <v>1649</v>
+      </c>
+      <c r="I1133" s="4" t="s">
+        <v>1650</v>
+      </c>
+      <c r="J1133" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1133" s="4" t="s">
+        <v>1651</v>
+      </c>
+      <c r="L1133" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1133" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1134" s="8"/>
+      <c r="B1134" s="8"/>
+      <c r="C1134" s="8"/>
+      <c r="D1134" s="8"/>
+      <c r="E1134" s="8"/>
+      <c r="F1134" s="8"/>
+      <c r="G1134" s="8"/>
+      <c r="H1134" s="8"/>
+      <c r="I1134" s="4" t="s">
+        <v>1652</v>
+      </c>
+      <c r="J1134" s="8"/>
+      <c r="K1134" s="4" t="s">
+        <v>1653</v>
+      </c>
+      <c r="L1134" s="8"/>
+      <c r="M1134" s="8"/>
+    </row>
+    <row r="1135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1135" s="8"/>
+      <c r="B1135" s="8"/>
+      <c r="C1135" s="8"/>
+      <c r="D1135" s="8"/>
+      <c r="E1135" s="8"/>
+      <c r="F1135" s="8"/>
+      <c r="G1135" s="8"/>
+      <c r="H1135" s="8"/>
+      <c r="I1135" s="4" t="s">
+        <v>1654</v>
+      </c>
+      <c r="J1135" s="8"/>
+      <c r="K1135" s="4" t="s">
+        <v>1655</v>
+      </c>
+      <c r="L1135" s="8"/>
+      <c r="M1135" s="8"/>
+    </row>
+    <row r="1136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1136" s="8"/>
+      <c r="B1136" s="8"/>
+      <c r="C1136" s="8"/>
+      <c r="D1136" s="8"/>
+      <c r="E1136" s="8"/>
+      <c r="F1136" s="8"/>
+      <c r="G1136" s="8"/>
+      <c r="H1136" s="8"/>
+      <c r="I1136" s="4" t="s">
+        <v>1656</v>
+      </c>
+      <c r="J1136" s="8"/>
+      <c r="K1136" s="4" t="s">
+        <v>1657</v>
+      </c>
+      <c r="L1136" s="8"/>
+      <c r="M1136" s="8"/>
+    </row>
+    <row r="1137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1137" s="8"/>
+      <c r="B1137" s="8"/>
+      <c r="C1137" s="8"/>
+      <c r="D1137" s="8"/>
+      <c r="E1137" s="8"/>
+      <c r="F1137" s="8"/>
+      <c r="G1137" s="8"/>
+      <c r="H1137" s="8"/>
+      <c r="I1137" s="4" t="s">
+        <v>1658</v>
+      </c>
+      <c r="J1137" s="8"/>
+      <c r="K1137" s="4" t="s">
+        <v>1659</v>
+      </c>
+      <c r="L1137" s="8"/>
+      <c r="M1137" s="8"/>
+    </row>
+    <row r="1138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1138" s="8" t="n">
         <v>3041</v>
       </c>
-      <c r="B1131" s="8" t="s">
+      <c r="B1138" s="8" t="s">
         <v>1660</v>
       </c>
-      <c r="C1131" s="8" t="s">
+      <c r="C1138" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="D1138" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1138" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1138" s="8" t="s">
+        <v>1661</v>
+      </c>
+      <c r="G1138" s="8" t="s">
+        <v>1662</v>
+      </c>
+      <c r="H1138" s="8" t="s">
+        <v>1663</v>
+      </c>
+      <c r="I1138" s="4" t="s">
+        <v>1650</v>
+      </c>
+      <c r="J1138" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1138" s="4" t="s">
+        <v>1651</v>
+      </c>
+      <c r="L1138" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1138" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1139" s="8"/>
+      <c r="B1139" s="8"/>
+      <c r="C1139" s="8"/>
+      <c r="D1139" s="8"/>
+      <c r="E1139" s="8"/>
+      <c r="F1139" s="8"/>
+      <c r="G1139" s="8"/>
+      <c r="H1139" s="8"/>
+      <c r="I1139" s="4" t="s">
+        <v>1652</v>
+      </c>
+      <c r="J1139" s="8"/>
+      <c r="K1139" s="4" t="s">
+        <v>1653</v>
+      </c>
+      <c r="L1139" s="8"/>
+      <c r="M1139" s="8"/>
+    </row>
+    <row r="1140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1140" s="8"/>
+      <c r="B1140" s="8"/>
+      <c r="C1140" s="8"/>
+      <c r="D1140" s="8"/>
+      <c r="E1140" s="8"/>
+      <c r="F1140" s="8"/>
+      <c r="G1140" s="8"/>
+      <c r="H1140" s="8"/>
+      <c r="I1140" s="4" t="s">
+        <v>1654</v>
+      </c>
+      <c r="J1140" s="8"/>
+      <c r="K1140" s="4" t="s">
+        <v>1655</v>
+      </c>
+      <c r="L1140" s="8"/>
+      <c r="M1140" s="8"/>
+    </row>
+    <row r="1141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1141" s="8"/>
+      <c r="B1141" s="8"/>
+      <c r="C1141" s="8"/>
+      <c r="D1141" s="8"/>
+      <c r="E1141" s="8"/>
+      <c r="F1141" s="8"/>
+      <c r="G1141" s="8"/>
+      <c r="H1141" s="8"/>
+      <c r="I1141" s="4" t="s">
+        <v>1656</v>
+      </c>
+      <c r="J1141" s="8"/>
+      <c r="K1141" s="4" t="s">
+        <v>1657</v>
+      </c>
+      <c r="L1141" s="8"/>
+      <c r="M1141" s="8"/>
+    </row>
+    <row r="1142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1142" s="8"/>
+      <c r="B1142" s="8"/>
+      <c r="C1142" s="8"/>
+      <c r="D1142" s="8"/>
+      <c r="E1142" s="8"/>
+      <c r="F1142" s="8"/>
+      <c r="G1142" s="8"/>
+      <c r="H1142" s="8"/>
+      <c r="I1142" s="4" t="s">
+        <v>1658</v>
+      </c>
+      <c r="J1142" s="8"/>
+      <c r="K1142" s="4" t="s">
+        <v>1659</v>
+      </c>
+      <c r="L1142" s="8"/>
+      <c r="M1142" s="8"/>
+    </row>
+    <row r="1143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1143" s="4" t="n">
+        <v>3042</v>
+      </c>
+      <c r="B1143" s="4" t="s">
+        <v>1664</v>
+      </c>
+      <c r="C1143" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="D1143" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1143" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1143" s="4" t="s">
+        <v>1665</v>
+      </c>
+      <c r="G1143" s="4" t="s">
+        <v>1666</v>
+      </c>
+      <c r="H1143" s="4" t="s">
+        <v>1667</v>
+      </c>
+      <c r="I1143" s="7" t="s">
+        <v>1481</v>
+      </c>
+      <c r="J1143" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1143" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="L1143" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1143" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1144" s="8" t="n">
+        <v>3043</v>
+      </c>
+      <c r="B1144" s="8" t="s">
+        <v>1668</v>
+      </c>
+      <c r="C1144" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="D1144" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1144" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1144" s="8" t="s">
+        <v>1669</v>
+      </c>
+      <c r="G1144" s="8" t="s">
+        <v>1670</v>
+      </c>
+      <c r="H1144" s="8" t="s">
+        <v>1671</v>
+      </c>
+      <c r="I1144" s="4" t="s">
+        <v>1650</v>
+      </c>
+      <c r="J1144" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1144" s="4" t="s">
+        <v>1651</v>
+      </c>
+      <c r="L1144" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1144" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1145" s="8"/>
+      <c r="B1145" s="8"/>
+      <c r="C1145" s="8"/>
+      <c r="D1145" s="8"/>
+      <c r="E1145" s="8"/>
+      <c r="F1145" s="8"/>
+      <c r="G1145" s="8"/>
+      <c r="H1145" s="8"/>
+      <c r="I1145" s="4" t="s">
+        <v>1652</v>
+      </c>
+      <c r="J1145" s="8"/>
+      <c r="K1145" s="4" t="s">
+        <v>1653</v>
+      </c>
+      <c r="L1145" s="8"/>
+      <c r="M1145" s="8"/>
+    </row>
+    <row r="1146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1146" s="8"/>
+      <c r="B1146" s="8"/>
+      <c r="C1146" s="8"/>
+      <c r="D1146" s="8"/>
+      <c r="E1146" s="8"/>
+      <c r="F1146" s="8"/>
+      <c r="G1146" s="8"/>
+      <c r="H1146" s="8"/>
+      <c r="I1146" s="4" t="s">
+        <v>1654</v>
+      </c>
+      <c r="J1146" s="8"/>
+      <c r="K1146" s="4" t="s">
+        <v>1655</v>
+      </c>
+      <c r="L1146" s="8"/>
+      <c r="M1146" s="8"/>
+    </row>
+    <row r="1147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1147" s="8"/>
+      <c r="B1147" s="8"/>
+      <c r="C1147" s="8"/>
+      <c r="D1147" s="8"/>
+      <c r="E1147" s="8"/>
+      <c r="F1147" s="8"/>
+      <c r="G1147" s="8"/>
+      <c r="H1147" s="8"/>
+      <c r="I1147" s="4" t="s">
+        <v>1656</v>
+      </c>
+      <c r="J1147" s="8"/>
+      <c r="K1147" s="4" t="s">
+        <v>1657</v>
+      </c>
+      <c r="L1147" s="8"/>
+      <c r="M1147" s="8"/>
+    </row>
+    <row r="1148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1148" s="8"/>
+      <c r="B1148" s="8"/>
+      <c r="C1148" s="8"/>
+      <c r="D1148" s="8"/>
+      <c r="E1148" s="8"/>
+      <c r="F1148" s="8"/>
+      <c r="G1148" s="8"/>
+      <c r="H1148" s="8"/>
+      <c r="I1148" s="4" t="s">
+        <v>1658</v>
+      </c>
+      <c r="J1148" s="8"/>
+      <c r="K1148" s="4" t="s">
+        <v>1659</v>
+      </c>
+      <c r="L1148" s="8"/>
+      <c r="M1148" s="8"/>
+    </row>
+    <row r="1149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1149" s="8" t="n">
+        <v>3044</v>
+      </c>
+      <c r="B1149" s="8" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C1149" s="8" t="s">
         <v>890</v>
       </c>
-      <c r="D1131" s="8" t="s">
+      <c r="D1149" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E1131" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1131" s="8" t="s">
-        <v>1661</v>
-      </c>
-      <c r="G1131" s="8" t="s">
-        <v>1661</v>
-      </c>
-      <c r="H1131" s="8" t="s">
-        <v>1662</v>
-      </c>
-      <c r="I1131" s="4" t="s">
-        <v>1663</v>
-      </c>
-      <c r="J1131" s="8" t="s">
+      <c r="E1149" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1149" s="8" t="s">
+        <v>1673</v>
+      </c>
+      <c r="G1149" s="8" t="s">
+        <v>1673</v>
+      </c>
+      <c r="H1149" s="8" t="s">
+        <v>1674</v>
+      </c>
+      <c r="I1149" s="4" t="s">
+        <v>1675</v>
+      </c>
+      <c r="J1149" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="K1131" s="4" t="s">
-        <v>1664</v>
-      </c>
-      <c r="L1131" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="M1131" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="1132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1132" s="8"/>
-      <c r="B1132" s="8"/>
-      <c r="C1132" s="8"/>
-      <c r="D1132" s="8"/>
-      <c r="E1132" s="8"/>
-      <c r="F1132" s="8"/>
-      <c r="G1132" s="8"/>
-      <c r="H1132" s="8"/>
-      <c r="I1132" s="4" t="s">
-        <v>1665</v>
-      </c>
-      <c r="J1132" s="8"/>
-      <c r="K1132" s="4" t="s">
-        <v>1666</v>
-      </c>
-      <c r="L1132" s="8"/>
-      <c r="M1132" s="8"/>
-    </row>
-    <row r="1133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1133" s="4" t="n">
-        <v>3042</v>
-      </c>
-      <c r="B1133" s="4" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C1133" s="4" t="s">
+      <c r="K1149" s="4" t="s">
+        <v>1676</v>
+      </c>
+      <c r="L1149" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1149" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1150" s="8"/>
+      <c r="B1150" s="8"/>
+      <c r="C1150" s="8"/>
+      <c r="D1150" s="8"/>
+      <c r="E1150" s="8"/>
+      <c r="F1150" s="8"/>
+      <c r="G1150" s="8"/>
+      <c r="H1150" s="8"/>
+      <c r="I1150" s="4" t="s">
+        <v>1677</v>
+      </c>
+      <c r="J1150" s="8"/>
+      <c r="K1150" s="4" t="s">
+        <v>1678</v>
+      </c>
+      <c r="L1150" s="8"/>
+      <c r="M1150" s="8"/>
+    </row>
+    <row r="1151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1151" s="4" t="n">
+        <v>3045</v>
+      </c>
+      <c r="B1151" s="4" t="s">
+        <v>1679</v>
+      </c>
+      <c r="C1151" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D1133" s="4" t="s">
+      <c r="D1151" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E1133" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1133" s="4" t="s">
-        <v>1668</v>
-      </c>
-      <c r="G1133" s="4" t="s">
-        <v>1669</v>
-      </c>
-      <c r="H1133" s="4" t="s">
-        <v>1670</v>
-      </c>
-      <c r="I1133" s="7" t="s">
+      <c r="E1151" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1151" s="4" t="s">
+        <v>1680</v>
+      </c>
+      <c r="G1151" s="4" t="s">
+        <v>1681</v>
+      </c>
+      <c r="H1151" s="4" t="s">
+        <v>1682</v>
+      </c>
+      <c r="I1151" s="7" t="s">
         <v>1481</v>
       </c>
-      <c r="J1133" s="4" t="s">
+      <c r="J1151" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="K1133" s="4" t="s">
+      <c r="K1151" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="L1133" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="M1133" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="1134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1134" s="4" t="n">
-        <v>3043</v>
-      </c>
-      <c r="B1134" s="4" t="s">
-        <v>1671</v>
-      </c>
-      <c r="C1134" s="4" t="s">
+      <c r="L1151" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1151" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1152" s="4" t="n">
+        <v>3046</v>
+      </c>
+      <c r="B1152" s="4" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C1152" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="D1134" s="4" t="s">
+      <c r="D1152" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E1134" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1134" s="4" t="s">
-        <v>1672</v>
-      </c>
-      <c r="G1134" s="4" t="s">
-        <v>1673</v>
-      </c>
-      <c r="H1134" s="4" t="s">
-        <v>1674</v>
-      </c>
-      <c r="I1134" s="7" t="s">
+      <c r="E1152" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1152" s="4" t="s">
+        <v>1684</v>
+      </c>
+      <c r="G1152" s="4" t="s">
+        <v>1685</v>
+      </c>
+      <c r="H1152" s="4" t="s">
+        <v>1686</v>
+      </c>
+      <c r="I1152" s="7" t="s">
         <v>1481</v>
       </c>
-      <c r="J1134" s="4" t="s">
+      <c r="J1152" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="K1134" s="4" t="s">
+      <c r="K1152" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="L1134" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="M1134" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="1135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1135" s="4" t="n">
-        <v>3044</v>
-      </c>
-      <c r="B1135" s="4" t="s">
-        <v>1675</v>
-      </c>
-      <c r="C1135" s="4" t="s">
+      <c r="L1152" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1152" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1153" s="4" t="n">
+        <v>3047</v>
+      </c>
+      <c r="B1153" s="4" t="s">
+        <v>1687</v>
+      </c>
+      <c r="C1153" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="D1135" s="4" t="s">
+      <c r="D1153" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E1135" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1135" s="4" t="s">
-        <v>1676</v>
-      </c>
-      <c r="G1135" s="4" t="s">
-        <v>1676</v>
-      </c>
-      <c r="H1135" s="4" t="s">
-        <v>1677</v>
-      </c>
-      <c r="I1135" s="7" t="s">
+      <c r="E1153" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1153" s="4" t="s">
+        <v>1688</v>
+      </c>
+      <c r="G1153" s="4" t="s">
+        <v>1688</v>
+      </c>
+      <c r="H1153" s="4" t="s">
+        <v>1689</v>
+      </c>
+      <c r="I1153" s="7" t="s">
         <v>1481</v>
       </c>
-      <c r="J1135" s="4" t="s">
+      <c r="J1153" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="K1135" s="4" t="s">
+      <c r="K1153" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="L1135" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="M1135" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="1136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1136" s="4" t="n">
-        <v>3045</v>
-      </c>
-      <c r="B1136" s="4" t="s">
-        <v>1678</v>
-      </c>
-      <c r="C1136" s="4" t="s">
+      <c r="L1153" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1153" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1154" s="4" t="n">
+        <v>3048</v>
+      </c>
+      <c r="B1154" s="4" t="s">
+        <v>1690</v>
+      </c>
+      <c r="C1154" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="D1136" s="4" t="s">
+      <c r="D1154" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E1136" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1136" s="4" t="s">
-        <v>1679</v>
-      </c>
-      <c r="G1136" s="4" t="s">
-        <v>1680</v>
-      </c>
-      <c r="H1136" s="4" t="s">
-        <v>1681</v>
-      </c>
-      <c r="I1136" s="7" t="s">
+      <c r="E1154" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1154" s="4" t="s">
+        <v>1691</v>
+      </c>
+      <c r="G1154" s="4" t="s">
+        <v>1692</v>
+      </c>
+      <c r="H1154" s="4" t="s">
+        <v>1693</v>
+      </c>
+      <c r="I1154" s="7" t="s">
         <v>1481</v>
       </c>
-      <c r="J1136" s="4" t="s">
+      <c r="J1154" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="K1136" s="4" t="s">
+      <c r="K1154" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="L1136" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="M1136" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="1137" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1137" s="1"/>
-    </row>
-    <row r="1138" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1138" s="2" t="s">
-        <v>1682</v>
-      </c>
-    </row>
-    <row r="1139" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1139" s="1"/>
-    </row>
-    <row r="1140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1140" s="4" t="s">
-        <v>1683</v>
-      </c>
-    </row>
-    <row r="1141" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1141" s="1"/>
-    </row>
-    <row r="1142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1142" s="6" t="s">
+      <c r="L1154" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1154" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1155" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1155" s="1"/>
+    </row>
+    <row r="1156" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1156" s="2" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="1157" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1157" s="1"/>
+    </row>
+    <row r="1158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1158" s="4" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="1159" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1159" s="1"/>
+    </row>
+    <row r="1160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1160" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B1142" s="6" t="s">
+      <c r="B1160" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C1142" s="6" t="s">
+      <c r="C1160" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1142" s="6" t="s">
+      <c r="D1160" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E1142" s="6" t="s">
+      <c r="E1160" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F1142" s="6" t="s">
+      <c r="F1160" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G1142" s="6" t="s">
+      <c r="G1160" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="H1142" s="6" t="s">
+      <c r="H1160" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="I1142" s="6" t="s">
+      <c r="I1160" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="J1142" s="6" t="s">
+      <c r="J1160" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="K1142" s="6" t="s">
+      <c r="K1160" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="L1142" s="6" t="s">
+      <c r="L1160" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="M1142" s="6" t="s">
+      <c r="M1160" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="1143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1143" s="8" t="n">
+    <row r="1161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1161" s="8" t="n">
         <v>4001</v>
       </c>
-      <c r="B1143" s="8" t="s">
-        <v>1684</v>
-      </c>
-      <c r="C1143" s="8" t="s">
+      <c r="B1161" s="8" t="s">
+        <v>1696</v>
+      </c>
+      <c r="C1161" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D1143" s="8" t="s">
+      <c r="D1161" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E1143" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1143" s="8" t="s">
-        <v>1685</v>
-      </c>
-      <c r="G1143" s="8" t="s">
-        <v>1685</v>
-      </c>
-      <c r="H1143" s="8" t="s">
-        <v>1686</v>
-      </c>
-      <c r="I1143" s="4" t="s">
+      <c r="E1161" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1161" s="8" t="s">
+        <v>1697</v>
+      </c>
+      <c r="G1161" s="8" t="s">
+        <v>1697</v>
+      </c>
+      <c r="H1161" s="8" t="s">
+        <v>1698</v>
+      </c>
+      <c r="I1161" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="J1143" s="8" t="s">
+      <c r="J1161" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="K1143" s="4" t="s">
+      <c r="K1161" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="L1143" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="M1143" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="1144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1144" s="8"/>
-      <c r="B1144" s="8"/>
-      <c r="C1144" s="8"/>
-      <c r="D1144" s="8"/>
-      <c r="E1144" s="8"/>
-      <c r="F1144" s="8"/>
-      <c r="G1144" s="8"/>
-      <c r="H1144" s="8"/>
-      <c r="I1144" s="4" t="s">
+      <c r="L1161" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1161" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1162" s="8"/>
+      <c r="B1162" s="8"/>
+      <c r="C1162" s="8"/>
+      <c r="D1162" s="8"/>
+      <c r="E1162" s="8"/>
+      <c r="F1162" s="8"/>
+      <c r="G1162" s="8"/>
+      <c r="H1162" s="8"/>
+      <c r="I1162" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="J1144" s="8"/>
-      <c r="K1144" s="4" t="s">
+      <c r="J1162" s="8"/>
+      <c r="K1162" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="L1144" s="8"/>
-      <c r="M1144" s="8"/>
-    </row>
-    <row r="1145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1145" s="4"/>
-    </row>
-    <row r="1146" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1146" s="1"/>
-    </row>
-    <row r="1147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1147" s="4" t="s">
-        <v>1687</v>
-      </c>
-    </row>
-    <row r="1148" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1148" s="1"/>
-    </row>
-    <row r="1149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1149" s="4" t="s">
-        <v>1687</v>
-      </c>
-    </row>
-    <row r="1150" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1150" s="1"/>
-    </row>
-    <row r="1151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1151" s="4" t="s">
-        <v>1687</v>
-      </c>
-    </row>
-    <row r="1152" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1152" s="1"/>
-    </row>
-    <row r="1153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1153" s="4" t="s">
-        <v>1687</v>
-      </c>
-    </row>
-    <row r="1154" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1154" s="1"/>
-    </row>
-    <row r="1155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1155" s="4" t="s">
-        <v>1687</v>
-      </c>
-    </row>
-    <row r="1156" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1156" s="1"/>
-    </row>
-    <row r="1157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1157" s="4" t="s">
-        <v>1687</v>
-      </c>
-    </row>
-    <row r="1158" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1158" s="1"/>
-    </row>
-    <row r="1159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1159" s="4" t="s">
-        <v>1687</v>
-      </c>
-    </row>
-    <row r="1160" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1160" s="1"/>
-    </row>
-    <row r="1161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1161" s="4" t="s">
-        <v>1688</v>
-      </c>
-    </row>
-    <row r="1162" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1162" s="1"/>
+      <c r="L1162" s="8"/>
+      <c r="M1162" s="8"/>
     </row>
     <row r="1163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1163" s="4" t="s">
-        <v>1688</v>
-      </c>
+      <c r="A1163" s="4"/>
     </row>
     <row r="1164" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1164" s="1"/>
     </row>
     <row r="1165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1165" s="4" t="s">
-        <v>1688</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="1166" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32252,7 +32626,7 @@
     </row>
     <row r="1167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1167" s="4" t="s">
-        <v>1688</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="1168" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32260,7 +32634,7 @@
     </row>
     <row r="1169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1169" s="4" t="s">
-        <v>1688</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="1170" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32268,7 +32642,7 @@
     </row>
     <row r="1171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1171" s="4" t="s">
-        <v>1689</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="1172" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32276,7 +32650,7 @@
     </row>
     <row r="1173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1173" s="4" t="s">
-        <v>1690</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="1174" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32284,7 +32658,7 @@
     </row>
     <row r="1175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1175" s="4" t="s">
-        <v>1688</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="1176" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32292,7 +32666,7 @@
     </row>
     <row r="1177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1177" s="4" t="s">
-        <v>1691</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="1178" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32300,7 +32674,7 @@
     </row>
     <row r="1179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1179" s="4" t="s">
-        <v>1691</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="1180" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32308,11 +32682,83 @@
     </row>
     <row r="1181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1181" s="4" t="s">
-        <v>1691</v>
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="1182" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1182" s="1"/>
+    </row>
+    <row r="1183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1183" s="4" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="1184" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1184" s="1"/>
+    </row>
+    <row r="1185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1185" s="4" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="1186" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1186" s="1"/>
+    </row>
+    <row r="1187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1187" s="4" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="1188" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1188" s="1"/>
+    </row>
+    <row r="1189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1189" s="4" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="1190" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1190" s="1"/>
+    </row>
+    <row r="1191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1191" s="4" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="1192" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1192" s="1"/>
+    </row>
+    <row r="1193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1193" s="4" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="1194" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1194" s="1"/>
+    </row>
+    <row r="1195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1195" s="4" t="s">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="1196" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1196" s="1"/>
+    </row>
+    <row r="1197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1197" s="4" t="s">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="1198" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1198" s="1"/>
+    </row>
+    <row r="1199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1199" s="4" t="s">
+        <v>1703</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1722">
+  <mergeCells count="1754">
     <mergeCell ref="A101:A103"/>
     <mergeCell ref="B101:B103"/>
     <mergeCell ref="C101:C103"/>
@@ -33881,160 +34327,192 @@
     <mergeCell ref="J1086:J1091"/>
     <mergeCell ref="L1086:L1091"/>
     <mergeCell ref="M1086:M1091"/>
-    <mergeCell ref="A1092:A1094"/>
-    <mergeCell ref="B1092:B1094"/>
-    <mergeCell ref="C1092:C1094"/>
-    <mergeCell ref="D1092:D1094"/>
-    <mergeCell ref="E1092:E1094"/>
-    <mergeCell ref="F1092:F1094"/>
-    <mergeCell ref="G1092:G1094"/>
-    <mergeCell ref="H1092:H1094"/>
-    <mergeCell ref="J1092:J1094"/>
-    <mergeCell ref="L1092:L1094"/>
-    <mergeCell ref="M1092:M1094"/>
-    <mergeCell ref="A1095:A1097"/>
-    <mergeCell ref="B1095:B1097"/>
-    <mergeCell ref="C1095:C1097"/>
-    <mergeCell ref="D1095:D1097"/>
-    <mergeCell ref="E1095:E1097"/>
-    <mergeCell ref="F1095:F1097"/>
-    <mergeCell ref="G1095:G1097"/>
-    <mergeCell ref="H1095:H1097"/>
-    <mergeCell ref="J1095:J1097"/>
-    <mergeCell ref="L1095:L1097"/>
-    <mergeCell ref="M1095:M1097"/>
-    <mergeCell ref="A1098:A1100"/>
-    <mergeCell ref="B1098:B1100"/>
-    <mergeCell ref="C1098:C1100"/>
-    <mergeCell ref="D1098:D1100"/>
-    <mergeCell ref="E1098:E1100"/>
-    <mergeCell ref="F1098:F1100"/>
-    <mergeCell ref="G1098:G1100"/>
-    <mergeCell ref="H1098:H1100"/>
-    <mergeCell ref="J1098:J1100"/>
-    <mergeCell ref="L1098:L1100"/>
-    <mergeCell ref="M1098:M1100"/>
-    <mergeCell ref="A1101:A1102"/>
-    <mergeCell ref="B1101:B1102"/>
-    <mergeCell ref="C1101:C1102"/>
-    <mergeCell ref="D1101:D1102"/>
-    <mergeCell ref="E1101:E1102"/>
-    <mergeCell ref="F1101:F1102"/>
-    <mergeCell ref="G1101:G1102"/>
-    <mergeCell ref="H1101:H1102"/>
-    <mergeCell ref="J1101:J1102"/>
-    <mergeCell ref="L1101:L1102"/>
-    <mergeCell ref="M1101:M1102"/>
-    <mergeCell ref="A1103:A1104"/>
-    <mergeCell ref="B1103:B1104"/>
-    <mergeCell ref="C1103:C1104"/>
-    <mergeCell ref="D1103:D1104"/>
-    <mergeCell ref="E1103:E1104"/>
-    <mergeCell ref="F1103:F1104"/>
-    <mergeCell ref="G1103:G1104"/>
-    <mergeCell ref="H1103:H1104"/>
-    <mergeCell ref="J1103:J1104"/>
-    <mergeCell ref="L1103:L1104"/>
-    <mergeCell ref="M1103:M1104"/>
-    <mergeCell ref="A1105:A1106"/>
-    <mergeCell ref="B1105:B1106"/>
-    <mergeCell ref="C1105:C1106"/>
-    <mergeCell ref="D1105:D1106"/>
-    <mergeCell ref="E1105:E1106"/>
-    <mergeCell ref="F1105:F1106"/>
-    <mergeCell ref="G1105:G1106"/>
-    <mergeCell ref="H1105:H1106"/>
-    <mergeCell ref="J1105:J1106"/>
-    <mergeCell ref="L1105:L1106"/>
-    <mergeCell ref="M1105:M1106"/>
-    <mergeCell ref="A1107:A1108"/>
-    <mergeCell ref="B1107:B1108"/>
-    <mergeCell ref="C1107:C1108"/>
-    <mergeCell ref="D1107:D1108"/>
-    <mergeCell ref="E1107:E1108"/>
-    <mergeCell ref="F1107:F1108"/>
-    <mergeCell ref="G1107:G1108"/>
-    <mergeCell ref="H1107:H1108"/>
-    <mergeCell ref="J1107:J1108"/>
-    <mergeCell ref="L1107:L1108"/>
-    <mergeCell ref="M1107:M1108"/>
-    <mergeCell ref="A1109:A1110"/>
-    <mergeCell ref="B1109:B1110"/>
-    <mergeCell ref="C1109:C1110"/>
-    <mergeCell ref="D1109:D1110"/>
-    <mergeCell ref="E1109:E1110"/>
-    <mergeCell ref="F1109:F1110"/>
-    <mergeCell ref="G1109:G1110"/>
-    <mergeCell ref="H1109:H1110"/>
-    <mergeCell ref="J1109:J1110"/>
-    <mergeCell ref="L1109:L1110"/>
-    <mergeCell ref="M1109:M1110"/>
-    <mergeCell ref="A1111:A1112"/>
-    <mergeCell ref="B1111:B1112"/>
-    <mergeCell ref="C1111:C1112"/>
-    <mergeCell ref="D1111:D1112"/>
-    <mergeCell ref="E1111:E1112"/>
-    <mergeCell ref="F1111:F1112"/>
-    <mergeCell ref="G1111:G1112"/>
-    <mergeCell ref="H1111:H1112"/>
-    <mergeCell ref="J1111:J1112"/>
-    <mergeCell ref="L1111:L1112"/>
-    <mergeCell ref="M1111:M1112"/>
-    <mergeCell ref="A1115:A1119"/>
-    <mergeCell ref="B1115:B1119"/>
-    <mergeCell ref="C1115:C1119"/>
-    <mergeCell ref="D1115:D1119"/>
-    <mergeCell ref="E1115:E1119"/>
-    <mergeCell ref="F1115:F1119"/>
-    <mergeCell ref="G1115:G1119"/>
-    <mergeCell ref="H1115:H1119"/>
-    <mergeCell ref="J1115:J1119"/>
-    <mergeCell ref="L1115:L1119"/>
-    <mergeCell ref="M1115:M1119"/>
-    <mergeCell ref="A1120:A1124"/>
-    <mergeCell ref="B1120:B1124"/>
-    <mergeCell ref="C1120:C1124"/>
-    <mergeCell ref="D1120:D1124"/>
-    <mergeCell ref="E1120:E1124"/>
-    <mergeCell ref="F1120:F1124"/>
-    <mergeCell ref="G1120:G1124"/>
-    <mergeCell ref="H1120:H1124"/>
-    <mergeCell ref="J1120:J1124"/>
-    <mergeCell ref="L1120:L1124"/>
-    <mergeCell ref="M1120:M1124"/>
-    <mergeCell ref="A1126:A1130"/>
-    <mergeCell ref="B1126:B1130"/>
-    <mergeCell ref="C1126:C1130"/>
-    <mergeCell ref="D1126:D1130"/>
-    <mergeCell ref="E1126:E1130"/>
-    <mergeCell ref="F1126:F1130"/>
-    <mergeCell ref="G1126:G1130"/>
-    <mergeCell ref="H1126:H1130"/>
-    <mergeCell ref="J1126:J1130"/>
-    <mergeCell ref="L1126:L1130"/>
-    <mergeCell ref="M1126:M1130"/>
-    <mergeCell ref="A1131:A1132"/>
-    <mergeCell ref="B1131:B1132"/>
-    <mergeCell ref="C1131:C1132"/>
-    <mergeCell ref="D1131:D1132"/>
-    <mergeCell ref="E1131:E1132"/>
-    <mergeCell ref="F1131:F1132"/>
-    <mergeCell ref="G1131:G1132"/>
-    <mergeCell ref="H1131:H1132"/>
-    <mergeCell ref="J1131:J1132"/>
-    <mergeCell ref="L1131:L1132"/>
-    <mergeCell ref="M1131:M1132"/>
-    <mergeCell ref="A1143:A1144"/>
-    <mergeCell ref="B1143:B1144"/>
-    <mergeCell ref="C1143:C1144"/>
-    <mergeCell ref="D1143:D1144"/>
-    <mergeCell ref="E1143:E1144"/>
-    <mergeCell ref="F1143:F1144"/>
-    <mergeCell ref="G1143:G1144"/>
-    <mergeCell ref="H1143:H1144"/>
-    <mergeCell ref="J1143:J1144"/>
-    <mergeCell ref="L1143:L1144"/>
-    <mergeCell ref="M1143:M1144"/>
+    <mergeCell ref="A1092:A1097"/>
+    <mergeCell ref="B1092:B1097"/>
+    <mergeCell ref="C1092:C1097"/>
+    <mergeCell ref="E1092:E1097"/>
+    <mergeCell ref="F1092:F1097"/>
+    <mergeCell ref="G1092:G1097"/>
+    <mergeCell ref="H1092:H1097"/>
+    <mergeCell ref="J1092:J1097"/>
+    <mergeCell ref="L1092:L1097"/>
+    <mergeCell ref="M1092:M1097"/>
+    <mergeCell ref="A1098:A1103"/>
+    <mergeCell ref="B1098:B1103"/>
+    <mergeCell ref="C1098:C1103"/>
+    <mergeCell ref="D1098:D1103"/>
+    <mergeCell ref="E1098:E1103"/>
+    <mergeCell ref="F1098:F1103"/>
+    <mergeCell ref="G1098:G1103"/>
+    <mergeCell ref="H1098:H1103"/>
+    <mergeCell ref="J1098:J1103"/>
+    <mergeCell ref="L1098:L1103"/>
+    <mergeCell ref="M1098:M1103"/>
+    <mergeCell ref="A1104:A1109"/>
+    <mergeCell ref="B1104:B1109"/>
+    <mergeCell ref="C1104:C1109"/>
+    <mergeCell ref="D1104:D1109"/>
+    <mergeCell ref="E1104:E1109"/>
+    <mergeCell ref="F1104:F1109"/>
+    <mergeCell ref="G1104:G1109"/>
+    <mergeCell ref="H1104:H1109"/>
+    <mergeCell ref="J1104:J1109"/>
+    <mergeCell ref="L1104:L1109"/>
+    <mergeCell ref="M1104:M1109"/>
+    <mergeCell ref="A1110:A1112"/>
+    <mergeCell ref="B1110:B1112"/>
+    <mergeCell ref="C1110:C1112"/>
+    <mergeCell ref="D1110:D1112"/>
+    <mergeCell ref="E1110:E1112"/>
+    <mergeCell ref="F1110:F1112"/>
+    <mergeCell ref="G1110:G1112"/>
+    <mergeCell ref="H1110:H1112"/>
+    <mergeCell ref="J1110:J1112"/>
+    <mergeCell ref="L1110:L1112"/>
+    <mergeCell ref="M1110:M1112"/>
+    <mergeCell ref="A1113:A1115"/>
+    <mergeCell ref="B1113:B1115"/>
+    <mergeCell ref="C1113:C1115"/>
+    <mergeCell ref="D1113:D1115"/>
+    <mergeCell ref="E1113:E1115"/>
+    <mergeCell ref="F1113:F1115"/>
+    <mergeCell ref="G1113:G1115"/>
+    <mergeCell ref="H1113:H1115"/>
+    <mergeCell ref="J1113:J1115"/>
+    <mergeCell ref="L1113:L1115"/>
+    <mergeCell ref="M1113:M1115"/>
+    <mergeCell ref="A1116:A1118"/>
+    <mergeCell ref="B1116:B1118"/>
+    <mergeCell ref="C1116:C1118"/>
+    <mergeCell ref="D1116:D1118"/>
+    <mergeCell ref="E1116:E1118"/>
+    <mergeCell ref="F1116:F1118"/>
+    <mergeCell ref="G1116:G1118"/>
+    <mergeCell ref="H1116:H1118"/>
+    <mergeCell ref="J1116:J1118"/>
+    <mergeCell ref="L1116:L1118"/>
+    <mergeCell ref="M1116:M1118"/>
+    <mergeCell ref="A1119:A1120"/>
+    <mergeCell ref="B1119:B1120"/>
+    <mergeCell ref="C1119:C1120"/>
+    <mergeCell ref="D1119:D1120"/>
+    <mergeCell ref="E1119:E1120"/>
+    <mergeCell ref="F1119:F1120"/>
+    <mergeCell ref="G1119:G1120"/>
+    <mergeCell ref="H1119:H1120"/>
+    <mergeCell ref="J1119:J1120"/>
+    <mergeCell ref="L1119:L1120"/>
+    <mergeCell ref="M1119:M1120"/>
+    <mergeCell ref="A1121:A1122"/>
+    <mergeCell ref="B1121:B1122"/>
+    <mergeCell ref="C1121:C1122"/>
+    <mergeCell ref="D1121:D1122"/>
+    <mergeCell ref="E1121:E1122"/>
+    <mergeCell ref="F1121:F1122"/>
+    <mergeCell ref="G1121:G1122"/>
+    <mergeCell ref="H1121:H1122"/>
+    <mergeCell ref="J1121:J1122"/>
+    <mergeCell ref="L1121:L1122"/>
+    <mergeCell ref="M1121:M1122"/>
+    <mergeCell ref="A1123:A1124"/>
+    <mergeCell ref="B1123:B1124"/>
+    <mergeCell ref="C1123:C1124"/>
+    <mergeCell ref="D1123:D1124"/>
+    <mergeCell ref="E1123:E1124"/>
+    <mergeCell ref="F1123:F1124"/>
+    <mergeCell ref="G1123:G1124"/>
+    <mergeCell ref="H1123:H1124"/>
+    <mergeCell ref="J1123:J1124"/>
+    <mergeCell ref="L1123:L1124"/>
+    <mergeCell ref="M1123:M1124"/>
+    <mergeCell ref="A1125:A1126"/>
+    <mergeCell ref="B1125:B1126"/>
+    <mergeCell ref="C1125:C1126"/>
+    <mergeCell ref="D1125:D1126"/>
+    <mergeCell ref="E1125:E1126"/>
+    <mergeCell ref="F1125:F1126"/>
+    <mergeCell ref="G1125:G1126"/>
+    <mergeCell ref="H1125:H1126"/>
+    <mergeCell ref="J1125:J1126"/>
+    <mergeCell ref="L1125:L1126"/>
+    <mergeCell ref="M1125:M1126"/>
+    <mergeCell ref="A1127:A1128"/>
+    <mergeCell ref="B1127:B1128"/>
+    <mergeCell ref="C1127:C1128"/>
+    <mergeCell ref="D1127:D1128"/>
+    <mergeCell ref="E1127:E1128"/>
+    <mergeCell ref="F1127:F1128"/>
+    <mergeCell ref="G1127:G1128"/>
+    <mergeCell ref="H1127:H1128"/>
+    <mergeCell ref="J1127:J1128"/>
+    <mergeCell ref="L1127:L1128"/>
+    <mergeCell ref="M1127:M1128"/>
+    <mergeCell ref="A1129:A1130"/>
+    <mergeCell ref="B1129:B1130"/>
+    <mergeCell ref="C1129:C1130"/>
+    <mergeCell ref="D1129:D1130"/>
+    <mergeCell ref="E1129:E1130"/>
+    <mergeCell ref="F1129:F1130"/>
+    <mergeCell ref="G1129:G1130"/>
+    <mergeCell ref="H1129:H1130"/>
+    <mergeCell ref="J1129:J1130"/>
+    <mergeCell ref="L1129:L1130"/>
+    <mergeCell ref="M1129:M1130"/>
+    <mergeCell ref="A1133:A1137"/>
+    <mergeCell ref="B1133:B1137"/>
+    <mergeCell ref="C1133:C1137"/>
+    <mergeCell ref="D1133:D1137"/>
+    <mergeCell ref="E1133:E1137"/>
+    <mergeCell ref="F1133:F1137"/>
+    <mergeCell ref="G1133:G1137"/>
+    <mergeCell ref="H1133:H1137"/>
+    <mergeCell ref="J1133:J1137"/>
+    <mergeCell ref="L1133:L1137"/>
+    <mergeCell ref="M1133:M1137"/>
+    <mergeCell ref="A1138:A1142"/>
+    <mergeCell ref="B1138:B1142"/>
+    <mergeCell ref="C1138:C1142"/>
+    <mergeCell ref="D1138:D1142"/>
+    <mergeCell ref="E1138:E1142"/>
+    <mergeCell ref="F1138:F1142"/>
+    <mergeCell ref="G1138:G1142"/>
+    <mergeCell ref="H1138:H1142"/>
+    <mergeCell ref="J1138:J1142"/>
+    <mergeCell ref="L1138:L1142"/>
+    <mergeCell ref="M1138:M1142"/>
+    <mergeCell ref="A1144:A1148"/>
+    <mergeCell ref="B1144:B1148"/>
+    <mergeCell ref="C1144:C1148"/>
+    <mergeCell ref="D1144:D1148"/>
+    <mergeCell ref="E1144:E1148"/>
+    <mergeCell ref="F1144:F1148"/>
+    <mergeCell ref="G1144:G1148"/>
+    <mergeCell ref="H1144:H1148"/>
+    <mergeCell ref="J1144:J1148"/>
+    <mergeCell ref="L1144:L1148"/>
+    <mergeCell ref="M1144:M1148"/>
+    <mergeCell ref="A1149:A1150"/>
+    <mergeCell ref="B1149:B1150"/>
+    <mergeCell ref="C1149:C1150"/>
+    <mergeCell ref="D1149:D1150"/>
+    <mergeCell ref="E1149:E1150"/>
+    <mergeCell ref="F1149:F1150"/>
+    <mergeCell ref="G1149:G1150"/>
+    <mergeCell ref="H1149:H1150"/>
+    <mergeCell ref="J1149:J1150"/>
+    <mergeCell ref="L1149:L1150"/>
+    <mergeCell ref="M1149:M1150"/>
+    <mergeCell ref="A1161:A1162"/>
+    <mergeCell ref="B1161:B1162"/>
+    <mergeCell ref="C1161:C1162"/>
+    <mergeCell ref="D1161:D1162"/>
+    <mergeCell ref="E1161:E1162"/>
+    <mergeCell ref="F1161:F1162"/>
+    <mergeCell ref="G1161:G1162"/>
+    <mergeCell ref="H1161:H1162"/>
+    <mergeCell ref="J1161:J1162"/>
+    <mergeCell ref="L1161:L1162"/>
+    <mergeCell ref="M1161:M1162"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A57" location="freitextfelder" display="Freitextfeld"/>
@@ -34074,19 +34552,19 @@
     <hyperlink ref="B1021" r:id="rId18" display="OECD-Quadratwurzel-Skala"/>
     <hyperlink ref="B1069" r:id="rId19" display="«easyvote»-Broschüre"/>
     <hyperlink ref="H1069" r:id="rId20" display="“easyvote” booklet"/>
-    <hyperlink ref="H1133" r:id="rId21" display="iterative proportional fitting procedure"/>
-    <hyperlink ref="H1134" r:id="rId22" display="iterative proportional fitting procedure"/>
-    <hyperlink ref="H1135" r:id="rId23" display="iterative proportional fitting procedure"/>
-    <hyperlink ref="H1136" r:id="rId24" display="iterative proportional fitting procedure"/>
-    <hyperlink ref="A1147" location="fnref1" display="↩︎"/>
-    <hyperlink ref="A1149" location="fnref2" display="↩︎"/>
-    <hyperlink ref="A1151" location="fnref3" display="↩︎"/>
-    <hyperlink ref="A1153" location="fnref4" display="↩︎"/>
-    <hyperlink ref="A1155" location="fnref5" display="↩︎"/>
-    <hyperlink ref="A1157" location="fnref6" display="↩︎"/>
-    <hyperlink ref="A1159" location="fnref7" display="↩︎"/>
-    <hyperlink ref="A1171" location="fnref13" display="↩︎"/>
-    <hyperlink ref="A1173" location="fnref14" display="↩︎"/>
+    <hyperlink ref="H1151" r:id="rId21" display="iterative proportional fitting procedure"/>
+    <hyperlink ref="H1152" r:id="rId22" display="iterative proportional fitting procedure"/>
+    <hyperlink ref="H1153" r:id="rId23" display="iterative proportional fitting procedure"/>
+    <hyperlink ref="H1154" r:id="rId24" display="iterative proportional fitting procedure"/>
+    <hyperlink ref="A1165" location="fnref1" display="↩︎"/>
+    <hyperlink ref="A1167" location="fnref2" display="↩︎"/>
+    <hyperlink ref="A1169" location="fnref3" display="↩︎"/>
+    <hyperlink ref="A1171" location="fnref4" display="↩︎"/>
+    <hyperlink ref="A1173" location="fnref5" display="↩︎"/>
+    <hyperlink ref="A1175" location="fnref6" display="↩︎"/>
+    <hyperlink ref="A1177" location="fnref7" display="↩︎"/>
+    <hyperlink ref="A1189" location="fnref13" display="↩︎"/>
+    <hyperlink ref="A1191" location="fnref14" display="↩︎"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
